--- a/InputFiles/ICDC/TC23_ICDC_COTC021_Breed-Boxer.xlsx
+++ b/InputFiles/ICDC/TC23_ICDC_COTC021_Breed-Boxer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\ICDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C66AFCD-5AAE-4E00-8477-4B69210CACFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A638A6-BB58-4EBB-9D4A-9919F9458DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -174,83 +174,6 @@
    st.clinical_study_designation = 'COTC021' AND dmg.breed = 'Boxer'
 ORDER BY 
     smp.sample_id ASC
-LIMIT 100;</t>
-  </si>
-  <si>
-    <t>SELECT 
-    DISTINCT cf.file_name AS "File Name",
-    CASE
-        WHEN cf.file_name LIKE '%.bai' THEN 'bai'
-        WHEN cf.file_name LIKE '%.bam' THEN 'bam'
-        WHEN cf.file_name LIKE '%.csv' THEN 'csv'
-        WHEN cf.file_name LIKE '%.doc' THEN 'doc'
-        WHEN cf.file_name LIKE '%.docx' THEN 'docx'
-        WHEN cf.file_name LIKE '%.gz' THEN 'gz'
-        WHEN cf.file_name LIKE '%.pdf' THEN 'pdf'
-        WHEN cf.file_name LIKE '%.rtf' THEN 'rtf'
-        WHEN cf.file_name LIKE '%.tbi' THEN 'tbi'
-        WHEN cf.file_name LIKE '%.tif' THEN 'tif'
-        WHEN cf.file_name LIKE '%.xls' THEN 'xls'
-        WHEN cf.file_name LIKE '%.xlsx' THEN 'xlsx'
-        ELSE 'Unknown'
-    END AS "Format",
-    cf.file_type AS "File Type",
-    CASE     
-    WHEN cf.file_size &gt;= 1024 * 1024 * 1024 THEN 
-        CASE 
-            WHEN ROUND(cf.file_size / (1024.0 * 1024.0 * 1024.0), 2) = CAST(ROUND(cf.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) 
-            THEN CAST(CAST(ROUND(cf.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' GB'
-            ELSE ROUND(cf.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB'
-        END
-    WHEN cf.file_size &gt;= 1024 * 1024 THEN 
-        CASE 
-            WHEN ROUND(cf.file_size / (1024.0 * 1024.0), 2) = CAST(ROUND(cf.file_size / (1024.0 * 1024.0), 0) AS INT) 
-            THEN CAST(CAST(ROUND(cf.file_size / (1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' MB'
-            ELSE ROUND(cf.file_size / (1024.0 * 1024.0), 2) || ' MB'
-        END
-    WHEN cf.file_size &gt;= 1024 THEN 
-        CASE 
-            WHEN ROUND(cf.file_size / 1024.0, 2) = CAST(ROUND(cf.file_size / 1024.0, 0) AS INT) 
-            THEN CAST(CAST(ROUND(cf.file_size / 1024.0, 0) AS INT) AS TEXT) || ' KB'
-            ELSE ROUND(cf.file_size / 1024.0, 2) || ' KB'
-        END
-    ELSE 
-        CASE 
-            WHEN ROUND(cf.file_size, 2) = CAST(ROUND(cf.file_size, 0) AS INT) 
-            THEN CAST(CAST(ROUND(cf.file_size, 0) AS INT) AS TEXT) || ' Bytes'
-            ELSE ROUND(cf.file_size, 2) || ' Bytes'
-        END
-END AS "Size",
-    'sample' AS "Association",
-    cf.file_description AS "Description",
-    smp.sample_id AS "Sample ID",
-    c.case_record_id AS "Case ID",
-    dmg.breed AS "Breed",
-    diag.disease_term AS "Diagnosis"
-FROM 
-    df_case_file cf
-JOIN 
-    df_sample smp ON cf."sample.sample_id" = smp.sample_id
-JOIN 
-    df_case c ON smp."case.case_record_id" = c.case_record_id
-JOIN 
-    df_study st ON c."study.clinical_study_designation" = st.clinical_study_designation
-JOIN 
-    df_program p ON st."program.program_acronym" = p.program_acronym
-JOIN 
-    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
-JOIN 
-    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
-JOIN 
-    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
-JOIN 
-    df_publication pub ON pub."study.clinical_study_designation" = st.clinical_study_designation
-LEFT JOIN 
-    df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
-WHERE
-    st.clinical_study_designation = 'COTC021' AND dmg.breed = 'Boxer'
-ORDER BY 
-    cf.file_name ASC
 LIMIT 100;</t>
   </si>
   <si>
@@ -325,6 +248,87 @@
     st.clinical_study_designation = 'COTC021' AND dmg.breed = 'Boxer'
 ORDER BY 
     sf.file_name ASC
+LIMIT 100;</t>
+  </si>
+  <si>
+    <t>SELECT 
+    DISTINCT cf.file_name AS "File Name",
+    CASE
+        WHEN cf.file_name LIKE '%.bai' THEN 'bai'
+        WHEN cf.file_name LIKE '%.bam' THEN 'bam'
+        WHEN cf.file_name LIKE '%.csv' THEN 'csv'
+        WHEN cf.file_name LIKE '%.doc' THEN 'doc'
+        WHEN cf.file_name LIKE '%.docx' THEN 'docx'
+        WHEN cf.file_name LIKE '%.fastq.gz' THEN 'fastq'
+        WHEN cf.file_name LIKE '%.vcf.gz' THEN 'vcf'
+        WHEN cf.file_name LIKE '%.tsv.gz' THEN 'tsv'
+        WHEN cf.file_name LIKE '%.pdf' THEN 'pdf'
+        WHEN cf.file_name LIKE '%.rtf' THEN 'rtf'
+        WHEN cf.file_name LIKE '%.tbi' THEN 'tbi'
+        WHEN cf.file_name LIKE '%.tif' THEN 'tif'
+        WHEN cf.file_name LIKE '%.xls' THEN 'xls'
+        WHEN cf.file_name LIKE '%.xlsx' THEN 'xlsx'
+        WHEN cf.file_name LIKE '%.h5' THEN 'h5'
+        WHEN cf.file_name LIKE '%.tsv' THEN 'tsv'
+        ELSE 'Unknown'
+    END AS "Format",
+    cf.file_type AS "File Type",
+    CASE     
+        WHEN cf.file_size &gt;= 1024 * 1024 * 1024 THEN 
+            CASE 
+                WHEN ROUND(cf.file_size / (1024.0 * 1024.0 * 1024.0), 2) = CAST(ROUND(cf.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) 
+                THEN CAST(CAST(ROUND(cf.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' GB'
+                ELSE ROUND(cf.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB'
+            END
+        WHEN cf.file_size &gt;= 1024 * 1024 THEN 
+            CASE 
+                WHEN ROUND(cf.file_size / (1024.0 * 1024.0), 2) = CAST(ROUND(cf.file_size / (1024.0 * 1024.0), 0) AS INT) 
+                THEN CAST(CAST(ROUND(cf.file_size / (1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' MB'
+                ELSE ROUND(cf.file_size / (1024.0 * 1024.0), 2) || ' MB'
+            END
+        WHEN cf.file_size &gt;= 1024 THEN 
+            CASE 
+                WHEN ROUND(cf.file_size / 1024.0, 2) = CAST(ROUND(cf.file_size / 1024.0, 0) AS INT) 
+                THEN CAST(CAST(ROUND(cf.file_size / 1024.0, 0) AS INT) AS TEXT) || ' KB'
+                ELSE ROUND(cf.file_size / 1024.0, 2) || ' KB'
+            END
+        ELSE 
+            CASE 
+                WHEN ROUND(cf.file_size, 2) = CAST(ROUND(cf.file_size, 0) AS INT) 
+                THEN CAST(CAST(ROUND(cf.file_size, 0) AS INT) AS TEXT) || ' Bytes'
+                ELSE ROUND(cf.file_size, 2) || ' Bytes'
+            END
+    END AS "Size",
+    'sample' AS "Association",
+    cf.file_description AS "Description",
+    smp.sample_id AS "Sample ID",
+    c.case_record_id AS "Case ID",
+    dmg.breed AS "Breed",
+    diag.disease_term AS "Diagnosis"
+FROM 
+    df_case_file cf
+JOIN 
+    df_sample smp ON cf."sample.sample_id" = smp.sample_id
+JOIN 
+    df_case c ON smp."case.case_record_id" = c.case_record_id
+JOIN 
+    df_study st ON c."study.clinical_study_designation" = st.clinical_study_designation
+JOIN 
+    df_program p ON st."program.program_acronym" = p.program_acronym
+JOIN 
+    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
+LEFT JOIN 
+    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
+LEFT JOIN 
+    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
+LEFT JOIN 
+    df_publication pub ON pub."study.clinical_study_designation" = st.clinical_study_designation
+LEFT JOIN 
+    df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
+WHERE
+    st.clinical_study_designation = 'COTC021' AND dmg.breed = 'Boxer'
+ORDER BY 
+    cf.file_name ASC
 LIMIT 100;</t>
   </si>
 </sst>
@@ -717,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -777,7 +781,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -786,7 +790,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1"/>
     </row>
